--- a/DOCUMENTATION/VENTAS_BenjaminDiaz.xlsx
+++ b/DOCUMENTATION/VENTAS_BenjaminDiaz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC21\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC21\Desktop\Ventas_Practicas\DOCUMENTATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A3812E6-74A8-4AF7-B925-118805F4238C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF28E96F-5B5B-4DC8-ADAC-D31E9E480F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{6EAF6CD4-5822-452F-9540-2F3B18E8C86D}"/>
+    <workbookView xWindow="13245" yWindow="1290" windowWidth="16200" windowHeight="9360" activeTab="2" xr2:uid="{6EAF6CD4-5822-452F-9540-2F3B18E8C86D}"/>
   </bookViews>
   <sheets>
     <sheet name="CUSTOMER" sheetId="1" r:id="rId1"/>
@@ -88,12 +88,6 @@
     <t>char(2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Númerico </t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
     <t>Tipo de dato</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>EMPEMAIL</t>
   </si>
   <si>
-    <t>numérico</t>
-  </si>
-  <si>
     <t>char(8)</t>
   </si>
   <si>
@@ -164,6 +155,15 @@
   </si>
   <si>
     <t>fecha del "ORDER"</t>
+  </si>
+  <si>
+    <t>varchar(80)</t>
+  </si>
+  <si>
+    <t>char(10)</t>
+  </si>
+  <si>
+    <t>varchar(18)</t>
   </si>
 </sst>
 </file>
@@ -246,9 +246,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,11 +253,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -580,7 +580,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,101 +591,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -703,7 +703,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,76 +714,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -810,65 +810,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
